--- a/amazon/amazon.xlsx
+++ b/amazon/amazon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\Office-Work\hq360\wireless-product-scrapper\amazon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects-hp_victus\wireless-product-scrapper\amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A32518-1BF5-4204-A799-1ACE312A68D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA448BC7-247D-4179-831E-96BE8604B45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D60877F7-2C30-459F-BB3B-6CAE79A621E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D60877F7-2C30-459F-BB3B-6CAE79A621E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>https://www.amazon.com/BAIMEI-Roller-Massager-Treatment-Routine/dp/B08RD6S5HF/ref=sr_1_4?crid=DYGTC5K6KTVB&amp;dib=eyJ2IjoiMSJ9.cfcBA2EhwhtstNRHwr77CtN8UJcIaJkE2bJ9wGVZNZeaMUOFd7G5qjciXrZLWY2Qm8zVcuBS043s4zyCRFbBhoQDAszX1l2U31vNNcj6wTGx0BcgdsZzMX-JERGBpB2c8E-MK6opIkslrn7vwNkbWD37aBPgzIAEBd8su_28mbccX8B2HdsTmie2N-uSr8qaIzURYD7-qNeo5IzyXQZzcEq-islFnTSePqVdUr3RTsyNHfWbn6cJL-gjwcSRSwyWm-rXNarEi1IP917WrZXyPYiZjm20ogbXK_TL1oVXKAY.WMAWR17Xd1mn3PlDEotIQbI6A2s1z206M7DQE5Q8yoU&amp;dib_tag=se&amp;keywords=beauty%2Band%2Bpersonal%2Bcare&amp;qid=1752137405&amp;sprefix=personal%2Band%2Bbeauty%2Bcare%2Caps%2C275&amp;sr=8-4&amp;th=1</t>
   </si>
@@ -538,15 +538,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674EE68C-0081-4CF8-8E1C-2FC87E17C895}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -560,249 +558,254 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
